--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D1B01-3B8F-494F-9EA9-20CA2B87675C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEEA1C-1766-4C0B-97AB-DCEAD94EA746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>5611025330A/CYLINDER BLOCK (F) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611025130A/CYLINDER BLOCK (F) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611500802A/CYLINDER HEAD (R)</t>
   </si>
 </sst>
 </file>
@@ -443,18 +449,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
-  <dimension ref="A1:C30"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -787,7 +792,140 @@
         <v>160</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEEA1C-1766-4C0B-97AB-DCEAD94EA746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B863134-A8B8-4C9C-800B-058FFBA2465B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -129,12 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,6 +926,138 @@
         <v>160</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B863134-A8B8-4C9C-800B-058FFBA2465B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F733B6E-E577-4D84-BC0A-72299C0BD246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>5611500802A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>5611011632A/CYLINDER BLOCK (F) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611011732A/CYLINDER BLOCK (R) RAW MATERIAL</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,6 +1064,176 @@
         <v>240</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>23235</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F733B6E-E577-4D84-BC0A-72299C0BD246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B82F67-B4C1-430F-8522-EAE2FB4B1BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,8 +1065,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>23235</v>
+      <c r="A55" s="3">
+        <v>44173</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -1076,8 +1076,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>23235</v>
+      <c r="A56" s="3">
+        <v>44173</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
@@ -1087,8 +1087,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>23235</v>
+      <c r="A57" s="3">
+        <v>44173</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -1098,8 +1098,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>23235</v>
+      <c r="A58" s="3">
+        <v>44173</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -1109,8 +1109,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>23235</v>
+      <c r="A59" s="3">
+        <v>44173</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -1120,8 +1120,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>23235</v>
+      <c r="A60" s="3">
+        <v>44173</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -1131,8 +1131,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>23235</v>
+      <c r="A61" s="3">
+        <v>44173</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1142,8 +1142,8 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>23235</v>
+      <c r="A62" s="3">
+        <v>44173</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -1153,8 +1153,8 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>23235</v>
+      <c r="A63" s="3">
+        <v>44173</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -1164,8 +1164,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>23235</v>
+      <c r="A64" s="3">
+        <v>44173</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
@@ -1175,8 +1175,8 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>23235</v>
+      <c r="A65" s="3">
+        <v>44173</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -1186,8 +1186,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>23235</v>
+      <c r="A66" s="3">
+        <v>44173</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -1197,8 +1197,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>23235</v>
+      <c r="A67" s="3">
+        <v>44173</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B82F67-B4C1-430F-8522-EAE2FB4B1BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044CAA5-7BD1-42BB-9904-61BDA36FD555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>5611011732A/CYLINDER BLOCK (R) RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611502001A/CYLINDER HEAD (R)</t>
   </si>
 </sst>
 </file>
@@ -460,8 +463,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,31 +1211,103 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
+      <c r="A68" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>240</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
+      <c r="A69" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>420</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
+      <c r="A70" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>304</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
+      <c r="A71" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>300</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
+      <c r="A72" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>240</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
+      <c r="A73" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>240</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>200</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
+      <c r="A75" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>160</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044CAA5-7BD1-42BB-9904-61BDA36FD555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15BB33-9AA4-4163-AB1D-CE3FF68EAFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>5611502001A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>T909910B/CYLINDER BLOCK (R) RAW MAT`L</t>
   </si>
 </sst>
 </file>
@@ -461,15 +464,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1309,6 +1312,160 @@
         <v>160</v>
       </c>
     </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15BB33-9AA4-4163-AB1D-CE3FF68EAFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5DD3D-DEA3-4293-ABFC-6AD47EE50141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -464,10 +464,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,6 +1466,138 @@
         <v>200</v>
       </c>
     </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5DD3D-DEA3-4293-ABFC-6AD47EE50141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E22888-6556-43E2-86A9-53D26D31E5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -112,9 +112,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,14 +151,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,16 +475,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,12 +494,12 @@
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>44166</v>
       </c>
       <c r="B2" t="s">
@@ -499,7 +510,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>44166</v>
       </c>
       <c r="B3" t="s">
@@ -510,7 +521,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>44166</v>
       </c>
       <c r="B4" t="s">
@@ -521,7 +532,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>44166</v>
       </c>
       <c r="B5" t="s">
@@ -532,7 +543,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>44166</v>
       </c>
       <c r="B6" t="s">
@@ -543,7 +554,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>44166</v>
       </c>
       <c r="B7" t="s">
@@ -554,7 +565,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>44167</v>
       </c>
       <c r="B8" t="s">
@@ -565,7 +576,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>44167</v>
       </c>
       <c r="B9" t="s">
@@ -576,7 +587,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>44167</v>
       </c>
       <c r="B10" t="s">
@@ -587,7 +598,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>44167</v>
       </c>
       <c r="B11" t="s">
@@ -598,7 +609,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>44167</v>
       </c>
       <c r="B12" t="s">
@@ -609,7 +620,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>44168</v>
       </c>
       <c r="B13" t="s">
@@ -620,7 +631,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>44168</v>
       </c>
       <c r="B14" t="s">
@@ -631,7 +642,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>44168</v>
       </c>
       <c r="B15" t="s">
@@ -642,7 +653,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>44168</v>
       </c>
       <c r="B16" t="s">
@@ -653,7 +664,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>44168</v>
       </c>
       <c r="B17" t="s">
@@ -664,7 +675,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>44169</v>
       </c>
       <c r="B18" t="s">
@@ -675,7 +686,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>44169</v>
       </c>
       <c r="B19" t="s">
@@ -686,7 +697,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>44169</v>
       </c>
       <c r="B20" t="s">
@@ -697,7 +708,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>44169</v>
       </c>
       <c r="B21" t="s">
@@ -708,7 +719,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>44169</v>
       </c>
       <c r="B22" t="s">
@@ -719,7 +730,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>44169</v>
       </c>
       <c r="B23" t="s">
@@ -730,7 +741,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>44169</v>
       </c>
       <c r="B24" t="s">
@@ -741,7 +752,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>44169</v>
       </c>
       <c r="B25" t="s">
@@ -752,7 +763,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>44169</v>
       </c>
       <c r="B26" t="s">
@@ -763,7 +774,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>44169</v>
       </c>
       <c r="B27" t="s">
@@ -774,7 +785,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>44169</v>
       </c>
       <c r="B28" t="s">
@@ -785,7 +796,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>44169</v>
       </c>
       <c r="B29" t="s">
@@ -796,7 +807,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>44169</v>
       </c>
       <c r="B30" t="s">
@@ -807,7 +818,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>44170</v>
       </c>
       <c r="B31" t="s">
@@ -818,7 +829,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>44170</v>
       </c>
       <c r="B32" t="s">
@@ -829,7 +840,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>44170</v>
       </c>
       <c r="B33" t="s">
@@ -840,7 +851,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>44170</v>
       </c>
       <c r="B34" t="s">
@@ -851,7 +862,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>44170</v>
       </c>
       <c r="B35" t="s">
@@ -862,7 +873,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>44170</v>
       </c>
       <c r="B36" t="s">
@@ -873,7 +884,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>44170</v>
       </c>
       <c r="B37" t="s">
@@ -884,7 +895,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>44170</v>
       </c>
       <c r="B38" t="s">
@@ -895,7 +906,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>44170</v>
       </c>
       <c r="B39" t="s">
@@ -906,7 +917,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>44170</v>
       </c>
       <c r="B40" t="s">
@@ -917,7 +928,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>44170</v>
       </c>
       <c r="B41" t="s">
@@ -928,7 +939,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>44170</v>
       </c>
       <c r="B42" t="s">
@@ -939,139 +950,139 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>44172</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>44172</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44172</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>44172</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>44172</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>44172</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>44172</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>44172</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>44172</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>44172</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>44172</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>44172</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>44173</v>
       </c>
       <c r="B55" t="s">
@@ -1082,7 +1093,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>44173</v>
       </c>
       <c r="B56" t="s">
@@ -1093,7 +1104,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>44173</v>
       </c>
       <c r="B57" t="s">
@@ -1104,7 +1115,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>44173</v>
       </c>
       <c r="B58" t="s">
@@ -1115,7 +1126,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>44173</v>
       </c>
       <c r="B59" t="s">
@@ -1126,7 +1137,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>44173</v>
       </c>
       <c r="B60" t="s">
@@ -1137,7 +1148,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>44173</v>
       </c>
       <c r="B61" t="s">
@@ -1148,7 +1159,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>44173</v>
       </c>
       <c r="B62" t="s">
@@ -1159,7 +1170,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>44173</v>
       </c>
       <c r="B63" t="s">
@@ -1170,7 +1181,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>44173</v>
       </c>
       <c r="B64" t="s">
@@ -1181,7 +1192,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>44173</v>
       </c>
       <c r="B65" t="s">
@@ -1192,7 +1203,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>44173</v>
       </c>
       <c r="B66" t="s">
@@ -1203,7 +1214,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>44173</v>
       </c>
       <c r="B67" t="s">
@@ -1214,7 +1225,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>44174</v>
       </c>
       <c r="B68" t="s">
@@ -1225,7 +1236,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>44174</v>
       </c>
       <c r="B69" t="s">
@@ -1236,7 +1247,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>44174</v>
       </c>
       <c r="B70" t="s">
@@ -1247,7 +1258,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>44174</v>
       </c>
       <c r="B71" t="s">
@@ -1258,7 +1269,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>44174</v>
       </c>
       <c r="B72" t="s">
@@ -1269,7 +1280,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>44174</v>
       </c>
       <c r="B73" t="s">
@@ -1280,7 +1291,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>44174</v>
       </c>
       <c r="B74" t="s">
@@ -1291,7 +1302,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>44174</v>
       </c>
       <c r="B75" t="s">
@@ -1302,7 +1313,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>44174</v>
       </c>
       <c r="B76" t="s">
@@ -1313,7 +1324,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>44175</v>
       </c>
       <c r="B77" t="s">
@@ -1324,7 +1335,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>44175</v>
       </c>
       <c r="B78" t="s">
@@ -1335,7 +1346,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>44175</v>
       </c>
       <c r="B79" t="s">
@@ -1346,7 +1357,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>44175</v>
       </c>
       <c r="B80" t="s">
@@ -1357,7 +1368,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>44175</v>
       </c>
       <c r="B81" t="s">
@@ -1368,7 +1379,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>44175</v>
       </c>
       <c r="B82" t="s">
@@ -1379,7 +1390,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>44175</v>
       </c>
       <c r="B83" t="s">
@@ -1390,7 +1401,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>44175</v>
       </c>
       <c r="B84" t="s">
@@ -1401,7 +1412,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>44175</v>
       </c>
       <c r="B85" t="s">
@@ -1412,7 +1423,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>44175</v>
       </c>
       <c r="B86" t="s">
@@ -1423,7 +1434,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="4">
         <v>44175</v>
       </c>
       <c r="B87" t="s">
@@ -1434,7 +1445,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>44175</v>
       </c>
       <c r="B88" t="s">
@@ -1445,7 +1456,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="4">
         <v>44175</v>
       </c>
       <c r="B89" t="s">
@@ -1456,7 +1467,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>44175</v>
       </c>
       <c r="B90" t="s">
@@ -1467,7 +1478,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>44176</v>
       </c>
       <c r="B91" t="s">
@@ -1478,7 +1489,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>44176</v>
       </c>
       <c r="B92" t="s">
@@ -1489,7 +1500,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>44176</v>
       </c>
       <c r="B93" t="s">
@@ -1500,7 +1511,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>44176</v>
       </c>
       <c r="B94" t="s">
@@ -1511,7 +1522,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>44176</v>
       </c>
       <c r="B95" t="s">
@@ -1522,7 +1533,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>44176</v>
       </c>
       <c r="B96" t="s">
@@ -1532,8 +1543,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
         <v>44176</v>
       </c>
       <c r="B97" t="s">
@@ -1543,8 +1554,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
         <v>44176</v>
       </c>
       <c r="B98" t="s">
@@ -1554,8 +1565,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
         <v>44176</v>
       </c>
       <c r="B99" t="s">
@@ -1565,8 +1576,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
         <v>44176</v>
       </c>
       <c r="B100" t="s">
@@ -1576,8 +1587,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
         <v>44176</v>
       </c>
       <c r="B101" t="s">
@@ -1587,8 +1598,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
         <v>44176</v>
       </c>
       <c r="B102" t="s">
@@ -1597,6 +1608,146 @@
       <c r="C102">
         <v>160</v>
       </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="5">
+        <v>160</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>240</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="5">
+        <v>240</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="5">
+        <v>160</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="5">
+        <v>160</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="5">
+        <v>240</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="5">
+        <v>240</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="5">
+        <v>200</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="5">
+        <v>160</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="5">
+        <v>160</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E22888-6556-43E2-86A9-53D26D31E5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A46116-0016-4FBC-BB06-24B196A6B44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="25">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>T909910B/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>5611506803A/CYLINDER HEAD (R)</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1749,6 +1752,244 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
+    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="5">
+        <v>160</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="5">
+        <v>240</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5">
+        <v>240</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="5">
+        <v>160</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="5">
+        <v>160</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="5">
+        <v>160</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="5">
+        <v>160</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="5">
+        <v>140</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="5">
+        <v>140</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="5">
+        <v>304</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="5">
+        <v>300</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="5">
+        <v>240</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="5">
+        <v>240</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="5">
+        <v>320</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="5">
+        <v>200</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="5">
+        <v>160</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="5">
+        <v>160</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A46116-0016-4FBC-BB06-24B196A6B44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ED77CC-E561-4090-8DE5-B87BDEE712B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="25">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -478,10 +478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,6 +1990,83 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ED77CC-E561-4090-8DE5-B87BDEE712B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3F24A-8D34-4C27-918E-8385E3901B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>5611506803A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>T963100A/CYLINDER BLOCK (F) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>T963113A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>Z0021771A/CYLINDER HEAD (F)</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2067,6 +2076,292 @@
         <v>320</v>
       </c>
     </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B161" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3F24A-8D34-4C27-918E-8385E3901B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A747F44-8769-4BF1-AF8F-27BB94A6124B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -487,10 +488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2362,6 +2363,127 @@
         <v>160</v>
       </c>
     </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B164" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B169" t="s">
+        <v>26</v>
+      </c>
+      <c r="C169">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A747F44-8769-4BF1-AF8F-27BB94A6124B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04666A0F-3203-4BD0-9CF5-E307FB87E84C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="28">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -488,10 +487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2341,7 +2340,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>44182</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>44182</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>44183</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44183</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>44183</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>44183</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>44183</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>44183</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>44183</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>44183</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>44183</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44183</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>44183</v>
       </c>
@@ -2483,6 +2482,356 @@
       <c r="C173">
         <v>300</v>
       </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="5">
+        <v>160</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="5">
+        <v>320</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="5">
+        <v>240</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="5">
+        <v>240</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="5">
+        <v>240</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" s="5">
+        <v>240</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" s="5">
+        <v>384</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="5">
+        <v>200</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="5">
+        <v>320</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="5">
+        <v>200</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" s="5">
+        <v>280</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="5">
+        <v>240</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="5">
+        <v>240</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="5">
+        <v>320</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="5">
+        <v>320</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="5">
+        <v>600</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="5">
+        <v>600</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="5">
+        <v>360</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" s="5">
+        <v>312</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="5">
+        <v>312</v>
+      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="5">
+        <v>320</v>
+      </c>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="5">
+        <v>200</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="5">
+        <v>320</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="5">
+        <v>320</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="5">
+        <v>300</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04666A0F-3203-4BD0-9CF5-E307FB87E84C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B0884E-8410-4E88-9082-1BD2EFEB2A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="28">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -487,10 +487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="H188" sqref="H188"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2833,6 +2833,127 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B200" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B205" t="s">
+        <v>26</v>
+      </c>
+      <c r="C205">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B209" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B0884E-8410-4E88-9082-1BD2EFEB2A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA09C1C-A44C-42A7-93A3-9E6E3AF5EFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -487,10 +487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2954,6 +2954,127 @@
         <v>300</v>
       </c>
     </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B210" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B212" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B213" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B220" t="s">
+        <v>27</v>
+      </c>
+      <c r="C220">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA09C1C-A44C-42A7-93A3-9E6E3AF5EFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FB9BD-335C-4960-B26B-389A597D8F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="28">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +171,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +489,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H218" sqref="H218"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2943,7 +2945,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44187</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>44188</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>44188</v>
       </c>
@@ -2976,7 +2978,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>44188</v>
       </c>
@@ -2987,7 +2989,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>44188</v>
       </c>
@@ -2998,7 +3000,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>44188</v>
       </c>
@@ -3009,7 +3011,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>44188</v>
       </c>
@@ -3020,7 +3022,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>44188</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>44188</v>
       </c>
@@ -3042,7 +3044,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44188</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>44188</v>
       </c>
@@ -3064,7 +3066,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>44188</v>
       </c>
@@ -3074,6 +3076,174 @@
       <c r="C220">
         <v>300</v>
       </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="7">
+        <v>240</v>
+      </c>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="7">
+        <v>480</v>
+      </c>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" s="7">
+        <v>480</v>
+      </c>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="7">
+        <v>288</v>
+      </c>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="7">
+        <v>240</v>
+      </c>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226" s="7">
+        <v>312</v>
+      </c>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227" s="7">
+        <v>312</v>
+      </c>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="7">
+        <v>320</v>
+      </c>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="7">
+        <v>200</v>
+      </c>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" s="7">
+        <v>240</v>
+      </c>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="7">
+        <v>200</v>
+      </c>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A232" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" s="7">
+        <v>300</v>
+      </c>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EDI.xlsx
+++ b/EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FB9BD-335C-4960-B26B-389A597D8F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF75791B-2BE7-470C-9528-ED2E13E5F3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B37400-23BD-416B-811D-337DD8450A8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="28">
   <si>
     <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +171,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,10 +491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119FF15-7106-4100-8DD5-F0A509141785}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="H229" sqref="H229"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3245,6 +3247,160 @@
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
     </row>
+    <row r="233" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" s="9">
+        <v>160</v>
+      </c>
+      <c r="D233" s="8"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="8"/>
+    </row>
+    <row r="234" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="9">
+        <v>160</v>
+      </c>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+    </row>
+    <row r="235" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A235" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="9">
+        <v>320</v>
+      </c>
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" s="9">
+        <v>80</v>
+      </c>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+    </row>
+    <row r="237" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A237" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237" s="9">
+        <v>80</v>
+      </c>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+    </row>
+    <row r="238" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" s="9">
+        <v>200</v>
+      </c>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="8"/>
+    </row>
+    <row r="239" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" s="9">
+        <v>204</v>
+      </c>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="8"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="9">
+        <v>240</v>
+      </c>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+    </row>
+    <row r="241" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="9">
+        <v>200</v>
+      </c>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+    </row>
+    <row r="242" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="9">
+        <v>160</v>
+      </c>
+      <c r="D242" s="8"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="8"/>
+    </row>
+    <row r="243" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="9">
+        <v>300</v>
+      </c>
+      <c r="D243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
